--- a/Daily_Check/sheet.xlsx
+++ b/Daily_Check/sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhandonbi\Desktop\Daily_Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Python\FSS\Daily_Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E530254-A598-40B7-8CE7-74B9BC917A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14329971-66B8-41A5-93D2-07733599E60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -860,6 +860,14 @@
       </rPr>
       <t>顾昊天</t>
     </r>
+  </si>
+  <si>
+    <t>182210711234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户请忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1270,13 +1278,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1465,88 +1474,90 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/Daily_Check/sheet.xlsx
+++ b/Daily_Check/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Python\FSS\Daily_Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14329971-66B8-41A5-93D2-07733599E60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639865F8-A772-4B97-AB79-8E698A2FDB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1290,274 +1290,274 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B36">
     <sortCondition ref="A36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
